--- a/server/exeldata/Jogos-Ragnarok.xlsx
+++ b/server/exeldata/Jogos-Ragnarok.xlsx
@@ -118,7 +118,7 @@
     <t>Kratos está devolta, ainda com a vingança pulsando forte em suas veias. O Olimpo e seus deuses é o seu alvo, não importa o preço que o Deus da Guerra irá pagar. Neste terceiro e épico capítulo você irá controlar Kratos através de batalhas celestiais contra os deuses mais poderosos de todo o Olimpo – inclusive voltará ao inferno e acertar as contas com seu pai colossal e poderoso, Kronos. Deuses como Hermes e Hades não serão páreo para seu poder, os olhos ardentes daquele que busca vingança que nem a mais cruel das mortes pode deter. Enfrente desafios arrasadores e enfrente monstros poderosos como a Quimera, o Cérberus e muitos outros seres místicos que estão ali apenas para acabar com sua existência. Não pare por nada até enfrentar o deus dos deuses: Zeus, e acabar com isso de uma vez por todas.</t>
   </si>
   <si>
-    <t>https://s3.amazonaws.com/comparegame/thumbnails/41421/large.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/pt/6/6c/God_of_War_3_capa.png</t>
   </si>
   <si>
     <t>PS3/PS4</t>
@@ -130,7 +130,7 @@
     <t>Junte-se ao Dedsec, um grupo notório de hackers, para executar o maior hack da história; Derrube o ctOS 2.0, um sistema operacional invasivo que está sendo usado por um gênio do crime para monitorar e manipular os cidadãos em uma escala massiva.</t>
   </si>
   <si>
-    <t>https://s3.amazonaws.com/comparegame/thumbnails/42209/large.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/pt/f/f8/Watch_Dogs_2_cover.png</t>
   </si>
   <si>
     <t>PC/PS4/XBoxOne</t>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]* #,##0.00_-;\-[$R$-416]* #,##0.00_-;_-[$R$-416]* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -191,6 +191,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,18 +338,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,6 +392,9 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +618,6 @@
     <col customWidth="1" min="4" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="5" width="23.57"/>
     <col customWidth="1" min="6" max="6" width="22.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
@@ -739,7 +747,7 @@
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="15">
@@ -759,7 +767,7 @@
       <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="15">

--- a/server/exeldata/Jogos-Ragnarok.xlsx
+++ b/server/exeldata/Jogos-Ragnarok.xlsx
@@ -43,7 +43,7 @@
     <t>PC/PS4/XBoxOne/Switch</t>
   </si>
   <si>
-    <t>Loja tambóre/Loja União</t>
+    <t>Loja tamboré/Loja União</t>
   </si>
   <si>
     <t>Spider-Man</t>
@@ -73,7 +73,7 @@
     <t>PS4</t>
   </si>
   <si>
-    <t>Loja tambóre/Loja União/Loja Iguatemi</t>
+    <t>Loja tamboré/Loja União/Loja Iguatemi</t>
   </si>
   <si>
     <t>God Of War</t>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -367,12 +367,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -394,6 +397,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,87 +722,87 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>36.0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>50.0</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>60.0</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <v>31.0</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>15</v>
       </c>
     </row>
